--- a/data/trans_orig/P14B35-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B35-Habitat-trans_orig.xlsx
@@ -1117,19 +1117,19 @@
         <v>10115</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5090</v>
+        <v>5041</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17766</v>
+        <v>18494</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0145105820974816</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007301870308801865</v>
+        <v>0.007232496463499564</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02548777714894989</v>
+        <v>0.02653137539228449</v>
       </c>
     </row>
     <row r="5">
@@ -1146,19 +1146,19 @@
         <v>686935</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>679284</v>
+        <v>678556</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>691960</v>
+        <v>692009</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9854894179025184</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9745122228510493</v>
+        <v>0.9734686246077153</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.992698129691198</v>
+        <v>0.9927675035365005</v>
       </c>
     </row>
     <row r="6">
@@ -1208,19 +1208,19 @@
         <v>11118</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5984</v>
+        <v>5074</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18508</v>
+        <v>19262</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01080473150418953</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005815168212108532</v>
+        <v>0.004931086198940685</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0179869663880972</v>
+        <v>0.01871977723286276</v>
       </c>
     </row>
     <row r="8">
@@ -1237,19 +1237,19 @@
         <v>1017855</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1010465</v>
+        <v>1009711</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1022989</v>
+        <v>1023899</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9891952684958105</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9820130336119026</v>
+        <v>0.9812802227671368</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9941848317878915</v>
+        <v>0.9950689138010592</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>15071</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8146</v>
+        <v>8209</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24169</v>
+        <v>24375</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01941698274505185</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01049517363865971</v>
+        <v>0.01057559214133517</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03113919682190084</v>
+        <v>0.03140382338346967</v>
       </c>
     </row>
     <row r="11">
@@ -1328,19 +1328,19 @@
         <v>761105</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>752007</v>
+        <v>751801</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>768030</v>
+        <v>767967</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9805830172549481</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9688608031780992</v>
+        <v>0.9685961766165303</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9895048263613403</v>
+        <v>0.9894244078586648</v>
       </c>
     </row>
     <row r="12">
@@ -1390,19 +1390,19 @@
         <v>7403</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2847</v>
+        <v>3624</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14899</v>
+        <v>15978</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007037491072864973</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002706057764484665</v>
+        <v>0.003445142167599544</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01416356169643522</v>
+        <v>0.01518923405168168</v>
       </c>
     </row>
     <row r="14">
@@ -1419,19 +1419,19 @@
         <v>1044498</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1037002</v>
+        <v>1035923</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1049054</v>
+        <v>1048277</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.992962508927135</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9858364383035647</v>
+        <v>0.9848107659483178</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9972939422355154</v>
+        <v>0.9965548578324004</v>
       </c>
     </row>
     <row r="15">
@@ -1481,19 +1481,19 @@
         <v>43706</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32841</v>
+        <v>32748</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57872</v>
+        <v>59250</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01229738052485601</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009240369375185556</v>
+        <v>0.009214256397767618</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01628327980634115</v>
+        <v>0.01667096135905205</v>
       </c>
     </row>
     <row r="17">
@@ -1510,19 +1510,19 @@
         <v>3510395</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3496229</v>
+        <v>3494851</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3521260</v>
+        <v>3521353</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.987702619475144</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.983716720193659</v>
+        <v>0.983329038640948</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9907596306248145</v>
+        <v>0.9907857436022324</v>
       </c>
     </row>
     <row r="18">
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4883</v>
+        <v>4555</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00121266904956983</v>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.007257087871128585</v>
+        <v>0.006769360124200693</v>
       </c>
     </row>
     <row r="5">
@@ -1719,7 +1719,7 @@
         <v>672023</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>667956</v>
+        <v>668284</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>672839</v>
@@ -1728,7 +1728,7 @@
         <v>0.9987873309504302</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9927429121288714</v>
+        <v>0.9932306398757993</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -1784,16 +1784,16 @@
         <v>940</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8674</v>
+        <v>7750</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002786688209022797</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0009015309864813496</v>
+        <v>0.0009010261082596018</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008316925681266527</v>
+        <v>0.007431222408784171</v>
       </c>
     </row>
     <row r="8">
@@ -1810,7 +1810,7 @@
         <v>1040007</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1034239</v>
+        <v>1035163</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>1041973</v>
@@ -1819,10 +1819,10 @@
         <v>0.9972133117909772</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9916830743187335</v>
+        <v>0.9925687775912158</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9990984690135186</v>
+        <v>0.9990989738917404</v>
       </c>
     </row>
     <row r="9">
@@ -1872,19 +1872,19 @@
         <v>3847</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8743</v>
+        <v>8636</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004901159761143858</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001255217616596014</v>
+        <v>0.001248959776569302</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01113783448227131</v>
+        <v>0.01100106818635526</v>
       </c>
     </row>
     <row r="11">
@@ -1901,19 +1901,19 @@
         <v>781164</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>776268</v>
+        <v>776375</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>784026</v>
+        <v>784031</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9950988402388561</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9888621655177287</v>
+        <v>0.9889989318136451</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9987447823834039</v>
+        <v>0.9987510402234306</v>
       </c>
     </row>
     <row r="12">
@@ -1963,19 +1963,19 @@
         <v>9827</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4661</v>
+        <v>5014</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16632</v>
+        <v>18053</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009414632197860323</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004465872875464914</v>
+        <v>0.004803607354708422</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01593443481815423</v>
+        <v>0.01729563840835869</v>
       </c>
     </row>
     <row r="14">
@@ -1992,19 +1992,19 @@
         <v>1033952</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1027147</v>
+        <v>1025726</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1039118</v>
+        <v>1038765</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9905853678021397</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9840655651818458</v>
+        <v>0.9827043615916412</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.995534127124535</v>
+        <v>0.9951963926452916</v>
       </c>
     </row>
     <row r="15">
@@ -2054,19 +2054,19 @@
         <v>17396</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10552</v>
+        <v>11213</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26051</v>
+        <v>27400</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004907958235385753</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002976919334980936</v>
+        <v>0.003163506210374268</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.007349480247965187</v>
+        <v>0.007730235636675035</v>
       </c>
     </row>
     <row r="17">
@@ -2083,19 +2083,19 @@
         <v>3527146</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3518491</v>
+        <v>3517142</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3533990</v>
+        <v>3533329</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9950920417646143</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9926505197520347</v>
+        <v>0.9922697643633248</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.997023080665019</v>
+        <v>0.9968364937896256</v>
       </c>
     </row>
     <row r="18">
@@ -2263,19 +2263,19 @@
         <v>20434</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12776</v>
+        <v>12435</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33277</v>
+        <v>32883</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02788815054658471</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01743664534712258</v>
+        <v>0.01697055715179656</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04541525856427255</v>
+        <v>0.04487783102285322</v>
       </c>
     </row>
     <row r="5">
@@ -2292,19 +2292,19 @@
         <v>712288</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>699445</v>
+        <v>699839</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>719946</v>
+        <v>720287</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9721118494534154</v>
+        <v>0.9721118494534152</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9545847414357276</v>
+        <v>0.9551221689771469</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9825633546528775</v>
+        <v>0.9830294428482035</v>
       </c>
     </row>
     <row r="6">
@@ -2354,19 +2354,19 @@
         <v>24368</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15970</v>
+        <v>15997</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35724</v>
+        <v>36289</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02282763074552004</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01496012323740682</v>
+        <v>0.01498506160135956</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03346485589824665</v>
+        <v>0.03399398037312384</v>
       </c>
     </row>
     <row r="8">
@@ -2383,19 +2383,19 @@
         <v>1043131</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1031775</v>
+        <v>1031210</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1051529</v>
+        <v>1051502</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9771723692544799</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9665351441017533</v>
+        <v>0.9660060196268758</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.985039876762593</v>
+        <v>0.9850149383986405</v>
       </c>
     </row>
     <row r="9">
@@ -2445,19 +2445,19 @@
         <v>35625</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24147</v>
+        <v>24706</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51120</v>
+        <v>52547</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.04414349643545405</v>
+        <v>0.04414349643545404</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02992108141866649</v>
+        <v>0.03061332182579189</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06334392798798508</v>
+        <v>0.06511216776281176</v>
       </c>
     </row>
     <row r="11">
@@ -2474,19 +2474,19 @@
         <v>771401</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>755906</v>
+        <v>754479</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>782879</v>
+        <v>782320</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9558565035645459</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9366560720120145</v>
+        <v>0.9348878322371883</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9700789185813335</v>
+        <v>0.969386678174208</v>
       </c>
     </row>
     <row r="12">
@@ -2536,19 +2536,19 @@
         <v>39735</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27803</v>
+        <v>28757</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54170</v>
+        <v>55306</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03562146649674598</v>
+        <v>0.03562146649674599</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02492427609034177</v>
+        <v>0.02577941318332897</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04856164956426928</v>
+        <v>0.04958029490160108</v>
       </c>
     </row>
     <row r="14">
@@ -2565,19 +2565,19 @@
         <v>1075753</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1061318</v>
+        <v>1060182</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1087685</v>
+        <v>1086731</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9643785335032539</v>
+        <v>0.9643785335032541</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9514383504357308</v>
+        <v>0.9504197050983992</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9750757239096581</v>
+        <v>0.9742205868166711</v>
       </c>
     </row>
     <row r="15">
@@ -2627,19 +2627,19 @@
         <v>120163</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>97746</v>
+        <v>98943</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>146697</v>
+        <v>146726</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03227815156190884</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02625662940003529</v>
+        <v>0.0265779752464241</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03940580678621171</v>
+        <v>0.03941339884312332</v>
       </c>
     </row>
     <row r="17">
@@ -2656,19 +2656,19 @@
         <v>3602572</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3576038</v>
+        <v>3576009</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3624989</v>
+        <v>3623792</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9677218484380912</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9605941932137884</v>
+        <v>0.9605866011568763</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9737433705999647</v>
+        <v>0.9734220247535756</v>
       </c>
     </row>
     <row r="18">
